--- a/data/outputs/数学期刊(上)_altmetric/30.OPSEARCH.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/30.OPSEARCH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -645,6 +650,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -758,6 +766,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -869,6 +880,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -980,6 +994,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1093,6 +1110,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1206,6 +1226,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1319,6 +1342,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1432,6 +1458,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1543,6 +1572,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1656,6 +1688,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1767,6 +1802,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1880,6 +1918,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1995,6 +2036,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2106,6 +2150,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2219,6 +2266,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2332,6 +2382,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2445,6 +2498,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2558,6 +2614,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2671,6 +2730,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2784,6 +2846,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2897,6 +2962,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3010,6 +3078,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3123,6 +3194,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3236,6 +3310,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3349,6 +3426,9 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3462,6 +3542,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3575,6 +3658,9 @@
       <c r="AG28" t="n">
         <v>0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3688,6 +3774,9 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3801,6 +3890,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3914,6 +4006,9 @@
       <c r="AG31" t="n">
         <v>0</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4027,6 +4122,9 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4140,6 +4238,9 @@
       <c r="AG33" t="n">
         <v>0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4253,6 +4354,9 @@
       <c r="AG34" t="n">
         <v>0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4366,6 +4470,9 @@
       <c r="AG35" t="n">
         <v>0</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4477,6 +4584,9 @@
       <c r="AG36" t="n">
         <v>0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AG37" t="n">
         <v>0</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4703,6 +4816,9 @@
       <c r="AG38" t="n">
         <v>0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4816,6 +4932,9 @@
       <c r="AG39" t="n">
         <v>0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4929,6 +5048,9 @@
       <c r="AG40" t="n">
         <v>0</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5042,6 +5164,9 @@
       <c r="AG41" t="n">
         <v>0</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5155,6 +5280,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5268,6 +5396,9 @@
       <c r="AG43" t="n">
         <v>0</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5377,6 +5508,9 @@
         <v>0</v>
       </c>
       <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,6 +5624,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5601,6 +5738,9 @@
       <c r="AG46" t="n">
         <v>0</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5714,6 +5854,9 @@
       <c r="AG47" t="n">
         <v>0</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5827,6 +5970,9 @@
       <c r="AG48" t="n">
         <v>0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5940,6 +6086,9 @@
       <c r="AG49" t="n">
         <v>0</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6053,6 +6202,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6162,6 +6314,9 @@
         <v>0</v>
       </c>
       <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
         <v>0</v>
       </c>
     </row>
